--- a/src/test/resources/Excel_Data/PdfComparatorData.xlsx
+++ b/src/test/resources/Excel_Data/PdfComparatorData.xlsx
@@ -37,46 +37,46 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
-    <t>PdfListFolder\Location1\file1.pdf</t>
-  </si>
-  <si>
-    <t>PdfListFolder\Location1\file212.pdf</t>
-  </si>
-  <si>
-    <t>PdfListFolder\Location1\3.pdf</t>
-  </si>
-  <si>
-    <t>PdfListFolder\Location1\4.pdf</t>
-  </si>
-  <si>
-    <t>PdfListFolder\Location1\5.pdf</t>
-  </si>
-  <si>
-    <t>PdfListFolder\Location1\6.pdf</t>
-  </si>
-  <si>
-    <t>PdfListFolder\Location1\result7(1).pdf</t>
-  </si>
-  <si>
-    <t>PdfListFolder\Location2\1.pdf</t>
-  </si>
-  <si>
-    <t>PdfListFolder\Location2\2.pdf</t>
-  </si>
-  <si>
-    <t>PdfListFolder\Location2\6.pdf</t>
-  </si>
-  <si>
-    <t>PdfListFolder\Location2\4.pdf</t>
-  </si>
-  <si>
-    <t>PdfListFolder\Location2\5.pdf</t>
-  </si>
-  <si>
-    <t>PdfListFolder\Location2\result7(2).pdf</t>
-  </si>
-  <si>
     <t>C:\Users\avinash.ts\git\CucumberEspire\src\test\resources\Excel_Data\ignore1.conf</t>
+  </si>
+  <si>
+    <t>src\test\resources\PdfListFolder\Location1\file1.pdf</t>
+  </si>
+  <si>
+    <t>src\test\resources\PdfListFolder\Location2\1.pdf</t>
+  </si>
+  <si>
+    <t>src\test\resources\PdfListFolder\Location1\file212.pdf</t>
+  </si>
+  <si>
+    <t>src\test\resources\PdfListFolder\Location2\2.pdf</t>
+  </si>
+  <si>
+    <t>src\test\resources\PdfListFolder\Location1\3.pdf</t>
+  </si>
+  <si>
+    <t>src\test\resources\PdfListFolder\Location2\6.pdf</t>
+  </si>
+  <si>
+    <t>src\test\resources\PdfListFolder\Location1\4.pdf</t>
+  </si>
+  <si>
+    <t>src\test\resources\PdfListFolder\Location2\4.pdf</t>
+  </si>
+  <si>
+    <t>src\test\resources\PdfListFolder\Location1\5.pdf</t>
+  </si>
+  <si>
+    <t>src\test\resources\PdfListFolder\Location2\5.pdf</t>
+  </si>
+  <si>
+    <t>src\test\resources\PdfListFolder\Location1\6.pdf</t>
+  </si>
+  <si>
+    <t>src\test\resources\PdfListFolder\Location1\result7(1).pdf</t>
+  </si>
+  <si>
+    <t>src\test\resources\PdfListFolder\Location2\result7(2).pdf</t>
   </si>
 </sst>
 </file>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,79 +449,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.25">
